--- a/Feb'2021/17.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/17.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2478,6 +2478,18 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,18 +2545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3099,67 +3099,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="259"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3168,52 +3168,52 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="243" t="s">
+      <c r="F4" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="243" t="s">
+      <c r="G4" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="243" t="s">
+      <c r="H4" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="243" t="s">
+      <c r="I4" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="243" t="s">
+      <c r="J4" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="256" t="s">
+      <c r="K4" s="260" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="258" t="s">
+      <c r="L4" s="262" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="260" t="s">
+      <c r="M4" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="262" t="s">
+      <c r="N4" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="264" t="s">
+      <c r="O4" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="255" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="192" t="s">
@@ -3226,22 +3226,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="248"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="265"/>
-      <c r="P5" s="252"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="256"/>
       <c r="Q5" s="193" t="s">
         <v>36</v>
       </c>
@@ -6127,12 +6127,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -6146,6 +6140,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8173,8 +8173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8590,7 +8590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
